--- a/pythonweb相关模块.xlsx
+++ b/pythonweb相关模块.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Python 内置函数等" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>模块</t>
   </si>
@@ -890,6 +889,14 @@
   </si>
   <si>
     <t>删除所有文档</t>
+  </si>
+  <si>
+    <t>Python 内置函数</t>
+  </si>
+  <si>
+    <t>with open('data.csv', 'ab+') as f:
+            writer = csv.writer(f)
+            writer.writerow([gender, height, weight])</t>
   </si>
 </sst>
 </file>
@@ -968,6 +975,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -976,21 +1089,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -999,82 +1097,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,9 +1105,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,20 +1114,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,13 +1183,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,169 +1357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,6 +1374,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1380,6 +1411,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1400,26 +1446,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,30 +1469,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1475,10 +1482,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1487,139 +1494,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2009,10 +2019,10 @@
   <sheetPr/>
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2045,15 +2055,15 @@
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2063,7 +2073,7 @@
       </c>
     </row>
     <row r="6" ht="86.4" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2079,28 +2089,28 @@
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -2114,40 +2124,40 @@
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" ht="15.6" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" ht="15.6" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" ht="15.6" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="2:3">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2155,17 +2165,17 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" ht="15.6" spans="2:3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" ht="15.6" spans="2:3">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2178,42 +2188,42 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2223,26 +2233,26 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
@@ -2250,10 +2260,10 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C37" t="s">
@@ -2261,28 +2271,28 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C43" t="s">
@@ -2290,7 +2300,7 @@
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C44" t="s">
@@ -2298,27 +2308,27 @@
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="9"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="9"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="9"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="A49" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B50" t="s">
@@ -2334,60 +2344,60 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="A54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="A61" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2413,12 +2423,12 @@
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C71" t="s">
@@ -2426,7 +2436,7 @@
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C72" t="s">
@@ -2520,31 +2530,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="61.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/pythonweb相关模块.xlsx
+++ b/pythonweb相关模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>模块</t>
+  </si>
+  <si>
+    <t>类</t>
   </si>
   <si>
     <t>方法</t>
@@ -891,6 +894,50 @@
     <t>删除所有文档</t>
   </si>
   <si>
+    <t>import requests</t>
+  </si>
+  <si>
+    <t>requests.get(URL)</t>
+  </si>
+  <si>
+    <t>response.encoding='GBK'</t>
+  </si>
+  <si>
+    <t>html = response.text</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scrapy</t>
+    </r>
+  </si>
+  <si>
+    <t>scrapy startproject pic</t>
+  </si>
+  <si>
+    <t>创建项目</t>
+  </si>
+  <si>
+    <t>scrapy genspider xh xiaohuar.com</t>
+  </si>
+  <si>
+    <t>创建spider</t>
+  </si>
+  <si>
+    <t>scrapy crawl xh --nolog</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
     <t>Python 内置函数</t>
   </si>
   <si>
@@ -904,12 +951,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,6 +965,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000080"/>
@@ -948,13 +1002,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="9.8"/>
       <color rgb="FF8C8C8C"/>
@@ -975,8 +1022,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,13 +1089,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1006,15 +1097,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,14 +1141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1044,23 +1149,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,45 +1166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,6 +1226,12 @@
       <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1183,187 +1242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,6 +1433,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1401,32 +1490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,8 +1517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,15 +1533,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1482,10 +1541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,137 +1553,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1637,32 +1696,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2017,22 +2079,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="45.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="79.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="47.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="67.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="47.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2042,482 +2105,600 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="86.4" spans="2:2">
-      <c r="B4" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="4" ht="86.4" spans="3:3">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="86.4" spans="2:2">
-      <c r="B6" s="4" t="s">
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="115.2" spans="1:3">
+    <row r="6" ht="86.4" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="115.2" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:3">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:3">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:4">
       <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" ht="15.6" spans="1:3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:4">
       <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:4">
       <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" ht="15.6" spans="2:3">
-      <c r="B20" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="20" ht="15.6" spans="3:4">
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" ht="15.6" spans="2:3">
-      <c r="B21" t="s">
+      <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" ht="15.6" spans="2:3">
-      <c r="B22" s="7"/>
+    </row>
+    <row r="21" ht="15.6" spans="3:4">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" ht="15.6" spans="3:4">
       <c r="C22" s="7"/>
-    </row>
-    <row r="23" ht="15.6" spans="2:3">
-      <c r="B23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" ht="15.6" spans="3:4">
+      <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="24" spans="3:4">
       <c r="C24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="5" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="8" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    <row r="34" spans="3:3">
+      <c r="C34" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="10" t="s">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="11" t="s">
+      <c r="D43" t="s">
         <v>39</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="10"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="12" t="s">
+      <c r="D44" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="9"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="B50" s="11"/>
       <c r="C50" t="s">
         <v>43</v>
       </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="B55" s="5"/>
+      <c r="C55" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="8" t="s">
+      <c r="B62" s="5"/>
+      <c r="C62" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="8" t="s">
+    <row r="63" spans="3:3">
+      <c r="C63" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="8" t="s">
+    <row r="64" spans="3:3">
+      <c r="C64" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="8" t="s">
+    <row r="65" spans="3:3">
+      <c r="C65" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
+    <row r="66" spans="3:3">
+      <c r="C66" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
-      <c r="B68" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" t="s">
+      <c r="D68" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="69" spans="3:4">
       <c r="C69" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="8" t="s">
+      <c r="D69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="8" t="s">
+    <row r="70" spans="3:3">
+      <c r="C70" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="8" t="s">
+      <c r="D71" t="s">
         <v>61</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>3</v>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" ht="15" spans="1:4">
+      <c r="A81" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2532,8 +2713,8 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -2543,12 +2724,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/pythonweb相关模块.xlsx
+++ b/pythonweb相关模块.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>模块</t>
   </si>
@@ -92,7 +92,7 @@
     </r>
   </si>
   <si>
-    <t>@app.route('/')
+    <t>@app.route('/', methods=['GET', 'POST'])
 def hello_world():
     return 'Hello World!'
 if __name__ == '__main__':
@@ -157,6 +157,9 @@
 app.url_map.converters['regex'] = RegexConverter</t>
   </si>
   <si>
+    <t>flask路径变量的识别程序</t>
+  </si>
+  <si>
     <t>os</t>
   </si>
   <si>
@@ -235,6 +238,170 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">loguru </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>logger</t>
+    </r>
+  </si>
+  <si>
+    <t>logger.add(
+        os.path.join("logs", 'sxb.log'),
+        level='INFO',
+        format='{time:YYYY-MM-DD HH:mm:ss} - {level} - {file} - {line} - {message}',
+        rotation="10 MB", encoding="utf-8", enqueue=True,
+)</t>
+  </si>
+  <si>
+    <t>日志配置按天按容量,日志保留时长,zip打包等功能</t>
+  </si>
+  <si>
+    <r>
+      <t>logger.info(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"niafasd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>@logger.catch</t>
+  </si>
+  <si>
+    <t>日志错误追综</t>
+  </si>
+  <si>
+    <t>import re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re.match('www', 'www.runoob.com').span()) </t>
+  </si>
+  <si>
+    <t>re.match只匹配字符串的开始</t>
+  </si>
+  <si>
+    <t>re.search(pattern, string, flags=0)</t>
+  </si>
+  <si>
+    <t>扫描整个字符串并返回第一个成功的匹配。</t>
+  </si>
+  <si>
+    <t>re.sub(r'\D', "", phone)</t>
+  </si>
+  <si>
+    <t>Python 的 re 模块提供了re.sub用于替换字符串中的匹配项。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rp = re.compile(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8"/>
+        <color rgb="FF008080"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r'#\d+'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>于编译正则表达式，生成一个正则表达式（ Pattern ）对象，供 match() 和 search() 这两个函数使用。</t>
+  </si>
+  <si>
+    <t>span()</t>
+  </si>
+  <si>
+    <t>获取索引</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num.group(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>获取匹配的值</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="9.8"/>
         <color rgb="FF0033B3"/>
@@ -250,22 +417,25 @@
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
-      <t>logging</t>
-    </r>
-  </si>
-  <si>
-    <t>import re</t>
-  </si>
-  <si>
-    <t>re.match</t>
-  </si>
-  <si>
-    <t>re.search的区</t>
-  </si>
-  <si>
-    <t>re.sub(r'\D', "", phone)</t>
-  </si>
-  <si>
+      <t>json</t>
+    </r>
+  </si>
+  <si>
+    <t>data1=json.dumps(data)</t>
+  </si>
+  <si>
+    <t>返回字符串</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
     <r>
       <rPr>
         <sz val="9.8"/>
@@ -273,71 +443,6 @@
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
-      <t>rp = re.compile(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8"/>
-        <color rgb="FF008080"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>r'#\d+'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF080808"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF0033B3"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">import </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF080808"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>json</t>
-    </r>
-  </si>
-  <si>
-    <t>data1=json.dumps(data)</t>
-  </si>
-  <si>
-    <t>返回字符串</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF0033B3"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">import </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF080808"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
       <t>jsonpickle</t>
     </r>
   </si>
@@ -346,6 +451,80 @@
   </si>
   <si>
     <t>转为字典</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>json.loads(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(request.data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'utf-8'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>))</t>
+    </r>
   </si>
   <si>
     <r>
@@ -686,6 +865,24 @@
     </r>
   </si>
   <si>
+    <t>def __init__(self, 
+level=logging.NOTSET, 
+host='localhost', 
+port=27017,
+database_name='logs',
+collection='logs',
+username=None,
+password=None, 
+authentication_db='admin',
+fail_silently=False, 
+formatter=None, 
+capped=False,
+capped_max=1000, 
+capped_size=1000000, 
+reuse=True, 
+**kwargs)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.8"/>
@@ -894,6 +1091,344 @@
     <t>删除所有文档</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mongoengine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>connect(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'mongengine'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">'mongodb://%s:%s@192.168.1.17:27017/?authSource=admin' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>% (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'admin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'123'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>连接</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> StringField(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">True, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max_length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ListField(LazyReferenceField(User))</t>
+  </si>
+  <si>
+    <t>引入</t>
+  </si>
+  <si>
+    <t>ListField(EmbeddedDocumentField(Login_token))</t>
+  </si>
+  <si>
+    <t>嵌套</t>
+  </si>
+  <si>
+    <t>IntField</t>
+  </si>
+  <si>
+    <t>增</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user = user_list(username='hanjing',password="12222").save()</t>
+  </si>
+  <si>
+    <t>查</t>
+  </si>
+  <si>
+    <r>
+      <t>users = user_list.objects.filter(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"hanjing"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">).first() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回所有的文档对象列表</t>
+    </r>
+  </si>
+  <si>
+    <t>查询</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">users = user_list.objects.all() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回所有的文档对象列表</t>
+    </r>
+  </si>
+  <si>
+    <t>ne - 不相等
+lt - 小于
+lte - 小于等于
+gt - 大于
+gte - 大于等于
+not - 取反
+in - 值在列表中
+nin - 值不在列表中
+mod - 取模
+all - 与列表的值相同
+size - 数组的大小
+exists - 字段的值存在
+__value  -数组下面的字段为value(嵌套类型)</t>
+  </si>
+  <si>
+    <t>字段加双__</t>
+  </si>
+  <si>
+    <t>User.objects((Q(country='uk') &amp; Q(age__gte=18)) | Q(age__gte=20))</t>
+  </si>
+  <si>
+    <t>高级查询</t>
+  </si>
+  <si>
+    <t>DatedPage.objects(title='你好').update(title='大家好')  # 操作成功返回0
+DatedPage.objects(title='你好1').update_one(set__title='红楼梦')</t>
+  </si>
+  <si>
     <t>import requests</t>
   </si>
   <si>
@@ -907,6 +1442,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">import </t>
     </r>
     <r>
@@ -944,6 +1485,48 @@
     <t>with open('data.csv', 'ab+') as f:
             writer = csv.writer(f)
             writer.writerow([gender, height, weight])</t>
+  </si>
+  <si>
+    <t>eval函数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> b = eval("x+y",{"x":1,"y":2})</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>函数可以有返回值</t>
+    </r>
+  </si>
+  <si>
+    <t>exec(source, globals=None, locals=None, /)</t>
+  </si>
+  <si>
+    <t>exec()函数返回值永远为None。)函数可以动态运行代码段。</t>
+  </si>
+  <si>
+    <t>compile(source, filename, mode, flags=0, dont_inherit=False, optimize=-1)</t>
+  </si>
+  <si>
+    <t>配合exec和eval使用</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>方法内,成员变量介入方法内局部变量</t>
   </si>
 </sst>
 </file>
@@ -951,12 +1534,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +1548,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1002,6 +1599,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="9.8"/>
       <color rgb="FF8C8C8C"/>
@@ -1023,13 +1632,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFCC7832"/>
+      <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,6 +1652,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1051,6 +1691,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1059,68 +1751,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,30 +1774,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1188,6 +1797,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9.8"/>
       <color rgb="FF008080"/>
@@ -1195,6 +1810,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF6897BB"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF8888C6"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFAA4926"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.8"/>
       <color rgb="FF660099"/>
       <name val="JetBrains Mono"/>
@@ -1228,8 +1861,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="JetBrains Mono"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1242,7 +1875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,19 +1899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,13 +1935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,7 +1947,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,19 +1971,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,19 +2019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,77 +2037,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1447,6 +2095,45 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,55 +2157,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,6 +2172,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1541,10 +2189,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1553,178 +2201,214 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2079,12 +2763,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2110,30 +2794,30 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2143,561 +2827,766 @@
       </c>
     </row>
     <row r="6" ht="86.4" spans="3:3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="115.2" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" ht="15.6" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" ht="15.6" spans="1:4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" ht="15.6" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" ht="15.6" spans="3:4">
-      <c r="C20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="10" t="s">
         <v>18</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="3:4">
       <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" ht="15.6" spans="3:4">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" ht="15.6" spans="3:4">
-      <c r="C23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="12" t="s">
         <v>21</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="100.8" spans="1:4">
+      <c r="A26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="3:3">
+      <c r="C27" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="3:4">
+      <c r="C28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" ht="43.2" spans="3:4">
+      <c r="C34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="3:4">
+      <c r="C36" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="3:4">
+      <c r="C37" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>41</v>
-      </c>
+      <c r="A40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="3:4">
+      <c r="C41" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="9"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="8" t="s">
+      <c r="C45" s="12" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="19"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="19"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="19"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" ht="230.4" spans="1:4">
+      <c r="A65" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="8" t="s">
-        <v>53</v>
+      <c r="C66" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" t="s">
-        <v>58</v>
+      <c r="C67" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="8" t="s">
-        <v>59</v>
+      <c r="C70" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="8" t="s">
-        <v>60</v>
+      <c r="C71" t="s">
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="8" t="s">
-        <v>62</v>
+      <c r="C72" t="s">
+        <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>4</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" ht="30" spans="1:4">
+      <c r="A77" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="1:4">
+      <c r="A78" s="13"/>
+      <c r="B78" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" ht="15" spans="1:4">
+      <c r="A79" s="13"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" ht="15" spans="1:4">
+      <c r="A80" s="13"/>
+      <c r="C80" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:4">
-      <c r="A81" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" ht="15" spans="1:4">
+      <c r="A82" s="13"/>
+      <c r="B82" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" ht="15.6" spans="1:4">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" ht="15.6" spans="1:4">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" ht="187.2" spans="1:4">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="5"/>
+      <c r="B86"/>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" ht="43.2" spans="1:4">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C87" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="5"/>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>4</v>
+      <c r="A89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="A99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" ht="15" spans="1:4">
+      <c r="A100" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2711,29 +3600,63 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="61.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="58.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" ht="43.2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" ht="17.4" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pythonweb相关模块.xlsx
+++ b/pythonweb相关模块.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
   <si>
     <t>模块</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">from </t>
     </r>
     <r>
@@ -281,6 +287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>logger.info(</t>
     </r>
     <r>
@@ -769,18 +781,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF080808"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">datetime.strptime(str1, </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF008080"/>
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
@@ -789,7 +795,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF080808"/>
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
@@ -1092,6 +1098,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">from </t>
     </r>
     <r>
@@ -1124,6 +1136,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>connect(</t>
     </r>
     <r>
@@ -1225,6 +1243,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> StringField(</t>
     </r>
     <r>
@@ -1307,6 +1331,9 @@
     <t>IntField</t>
   </si>
   <si>
+    <t>DynamicDocument</t>
+  </si>
+  <si>
     <t>增</t>
   </si>
   <si>
@@ -1317,6 +1344,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>users = user_list.objects.filter(</t>
     </r>
     <r>
@@ -1379,6 +1412,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">users = user_list.objects.all() </t>
     </r>
     <r>
@@ -1419,6 +1458,12 @@
     <t>字段加双__</t>
   </si>
   <si>
+    <t>.order_by("-role")</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
     <t>User.objects((Q(country='uk') &amp; Q(age__gte=18)) | Q(age__gte=20))</t>
   </si>
   <si>
@@ -1477,6 +1522,32 @@
   </si>
   <si>
     <t>执行</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>copy</t>
+    </r>
+  </si>
+  <si>
+    <t>copy.deepcopy</t>
+  </si>
+  <si>
+    <t>深克隆</t>
+  </si>
+  <si>
+    <t>copy.copy</t>
+  </si>
+  <si>
+    <t>浅克隆</t>
   </si>
   <si>
     <t>Python 内置函数</t>
@@ -1534,12 +1605,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1631,14 +1702,136 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.05"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1653,122 +1846,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1848,8 +1933,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF080808"/>
+      <color rgb="FF008080"/>
       <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
@@ -1875,7 +1961,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,19 +2063,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,151 +2135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,32 +2170,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2131,9 +2196,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2153,22 +2244,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2189,10 +2275,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2201,137 +2287,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2374,21 +2460,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2396,12 +2473,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2763,12 +2846,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2978,7 +3061,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D26" t="s">
@@ -2986,12 +3069,12 @@
       </c>
     </row>
     <row r="27" ht="15" spans="3:3">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" ht="15" spans="3:4">
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D28" t="s">
@@ -3027,7 +3110,7 @@
     <row r="32" ht="15" spans="1:4">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
@@ -3051,7 +3134,7 @@
       </c>
     </row>
     <row r="36" ht="15" spans="3:4">
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
@@ -3059,7 +3142,7 @@
       </c>
     </row>
     <row r="37" ht="15" spans="3:4">
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D37" t="s">
@@ -3105,7 +3188,7 @@
       </c>
     </row>
     <row r="41" ht="15" spans="3:4">
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D41" t="s">
@@ -3138,7 +3221,7 @@
       </c>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D46" t="s">
@@ -3146,7 +3229,7 @@
       </c>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D47" t="s">
@@ -3154,13 +3237,13 @@
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="19"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="19"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="19"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
@@ -3177,10 +3260,10 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="18"/>
       <c r="C53" t="s">
         <v>58</v>
       </c>
@@ -3212,7 +3295,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3238,7 +3321,7 @@
       <c r="C65" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3323,7 +3406,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="5"/>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -3332,10 +3415,10 @@
     </row>
     <row r="78" ht="15" spans="1:4">
       <c r="A78" s="13"/>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D78" s="5"/>
@@ -3343,7 +3426,7 @@
     <row r="79" ht="15" spans="1:4">
       <c r="A79" s="13"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -3352,7 +3435,7 @@
     </row>
     <row r="80" ht="15" spans="1:4">
       <c r="A80" s="13"/>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -3361,232 +3444,300 @@
     </row>
     <row r="81" ht="15" spans="1:4">
       <c r="A81" s="13"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" ht="15" spans="1:4">
+    <row r="82" ht="17.4" spans="1:4">
       <c r="A82" s="13"/>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="15"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" ht="15" spans="1:4">
+      <c r="A83" s="13"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" ht="15" spans="1:4">
+      <c r="A84" s="13"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" ht="15" spans="1:4">
+      <c r="A85" s="13"/>
+      <c r="B85" s="5"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" ht="15" spans="1:4">
+      <c r="A86" s="13"/>
+      <c r="B86" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" ht="15.6" spans="1:4">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5" t="s">
+      <c r="C86" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" ht="15.6" spans="1:4">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" ht="187.2" spans="1:4">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="5"/>
-      <c r="B86"/>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" ht="43.2" spans="1:4">
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" ht="15.6" spans="1:4">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" ht="15.6" spans="1:4">
       <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" ht="187.2" spans="1:4">
       <c r="A89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="C90" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+      <c r="C91" s="23"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="5"/>
+      <c r="C94" t="s">
         <v>101</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D94" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
-      <c r="C94" t="s">
+    <row r="95" ht="43.2" spans="1:4">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" t="s">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" ht="15" spans="1:4">
-      <c r="A100" s="25" t="s">
+      <c r="C101" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="8" t="s">
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
         <v>106</v>
       </c>
-      <c r="D100" s="8" t="s">
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="3:4">
-      <c r="C101" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:4">
+      <c r="A108" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D101" t="s">
+      <c r="C108" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="C102" t="s">
+      <c r="D108" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D102" t="s">
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="D109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" ht="15" spans="1:4">
+      <c r="A112" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3614,7 +3765,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -3622,40 +3773,40 @@
     </row>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" ht="17.4" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/pythonweb相关模块.xlsx
+++ b/pythonweb相关模块.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
   <si>
     <t>模块</t>
   </si>
@@ -781,6 +781,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">datetime.strptime(str1, </t>
     </r>
     <r>
@@ -797,6 +803,79 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dateutil.relativedelta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>relativedelta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>relativedelta(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>360</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
@@ -1525,6 +1604,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">import </t>
     </r>
     <r>
@@ -1548,6 +1633,15 @@
   </si>
   <si>
     <t>浅克隆</t>
+  </si>
+  <si>
+    <t>from functools import reduce</t>
+  </si>
+  <si>
+    <t>reduce(lambda x,y:x+y , a )</t>
+  </si>
+  <si>
+    <t>list做累加</t>
   </si>
   <si>
     <t>Python 内置函数</t>
@@ -1605,10 +1699,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -1723,46 +1817,34 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1774,6 +1856,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1782,47 +1907,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1845,6 +1938,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1967,7 +2061,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,19 +2097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2003,19 +2109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2033,7 +2133,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2045,103 +2229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2174,6 +2268,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2190,17 +2293,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2223,8 +2315,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2258,15 +2361,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2275,10 +2369,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2287,137 +2381,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2478,6 +2572,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2490,7 +2590,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2849,9 +2949,9 @@
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3299,6 +3399,28 @@
         <v>62</v>
       </c>
     </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:3">
+      <c r="A61" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
         <v>4</v>
@@ -3315,76 +3437,76 @@
     </row>
     <row r="65" ht="230.4" spans="1:4">
       <c r="A65" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="C72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3403,23 +3525,23 @@
     </row>
     <row r="77" ht="30" spans="1:4">
       <c r="A77" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" s="5"/>
-      <c r="C77" s="20" t="s">
-        <v>81</v>
+      <c r="C77" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:4">
       <c r="A78" s="13"/>
       <c r="B78" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D78" s="5"/>
     </row>
@@ -3427,32 +3549,32 @@
       <c r="A79" s="13"/>
       <c r="B79" s="5"/>
       <c r="C79" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:4">
       <c r="A80" s="13"/>
       <c r="C80" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:4">
       <c r="A81" s="13"/>
       <c r="C81" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D81" s="5"/>
     </row>
     <row r="82" ht="17.4" spans="1:4">
       <c r="A82" s="13"/>
-      <c r="B82" s="21" t="s">
-        <v>90</v>
+      <c r="B82" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="5"/>
@@ -3475,87 +3597,87 @@
     <row r="86" ht="15" spans="1:4">
       <c r="A86" s="13"/>
       <c r="B86" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D86" s="5"/>
     </row>
     <row r="87" ht="15.6" spans="1:4">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:4">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D88" s="5"/>
     </row>
     <row r="89" ht="187.2" spans="1:4">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="23" t="s">
-        <v>97</v>
+      <c r="C89" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="23" t="s">
-        <v>99</v>
+      <c r="C90" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="23"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="23"/>
+      <c r="C92" s="25"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="23"/>
+      <c r="C93" s="25"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="5"/>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" ht="43.2" spans="1:4">
       <c r="A95" s="5"/>
       <c r="B95" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D95" s="5"/>
     </row>
@@ -3595,20 +3717,20 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3627,29 +3749,29 @@
     </row>
     <row r="108" ht="15" spans="1:4">
       <c r="A108" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="3:4">
       <c r="C109" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D109" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="3:4">
       <c r="C110" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3667,22 +3789,22 @@
       </c>
     </row>
     <row r="112" ht="15" spans="1:4">
-      <c r="A112" s="24" t="s">
-        <v>115</v>
+      <c r="A112" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="3:4">
       <c r="C113" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D113" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3697,6 +3819,17 @@
       </c>
       <c r="D116" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="117" ht="15" spans="1:4">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3765,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -3773,40 +3906,40 @@
     </row>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" ht="17.4" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/pythonweb相关模块.xlsx
+++ b/pythonweb相关模块.xlsx
@@ -811,6 +811,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">from </t>
     </r>
     <r>
@@ -843,6 +849,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>relativedelta(</t>
     </r>
     <r>
@@ -1699,9 +1711,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
@@ -1816,6 +1828,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1824,11 +1918,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1842,83 +1950,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1933,28 +1967,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2055,7 +2067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,7 +2097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2079,7 +2115,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,13 +2139,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2109,7 +2175,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2121,25 +2193,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2151,91 +2247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2264,24 +2276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2293,6 +2287,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2332,6 +2335,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2369,10 +2381,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2381,137 +2393,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2572,12 +2584,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2589,9 +2595,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2949,9 +2952,9 @@
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3414,10 +3417,10 @@
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3528,7 +3531,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="5"/>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -3573,7 +3576,7 @@
     </row>
     <row r="82" ht="17.4" spans="1:4">
       <c r="A82" s="13"/>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C82" s="15"/>
@@ -3599,7 +3602,7 @@
       <c r="B86" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D86" s="5"/>
@@ -3627,7 +3630,7 @@
     <row r="89" ht="187.2" spans="1:4">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="23" t="s">
         <v>99</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -3637,7 +3640,7 @@
     <row r="90" spans="1:4">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="23" t="s">
         <v>101</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -3647,19 +3650,19 @@
     <row r="91" spans="1:4">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="25"/>
+      <c r="C91" s="23"/>
       <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="25"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="25"/>
+      <c r="C93" s="23"/>
       <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4">
@@ -3825,7 +3828,7 @@
       <c r="A117" t="s">
         <v>122</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="15" t="s">
         <v>123</v>
       </c>
       <c r="D117" t="s">

--- a/pythonweb相关模块.xlsx
+++ b/pythonweb相关模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
   <si>
     <t>模块</t>
   </si>
@@ -436,7 +436,8 @@
     <t>data1=json.dumps(data)</t>
   </si>
   <si>
-    <t>返回字符串</t>
+    <t>返回字符串
+真正的中文需要指定ensure_ascii=False</t>
   </si>
   <si>
     <r>
@@ -1705,15 +1706,24 @@
   <si>
     <t>方法内,成员变量介入方法内局部变量</t>
   </si>
+  <si>
+    <t>id()</t>
+  </si>
+  <si>
+    <t>是python的内置函数，用于返回对象的身份，即对象的内存地址</t>
+  </si>
+  <si>
+    <t>range(0, 30, 5)  # 步长为 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
@@ -1829,6 +1839,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1837,6 +1878,43 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1851,37 +1929,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1896,7 +1945,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1910,6 +1959,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1918,55 +1975,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2067,13 +2077,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,37 +2161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,103 +2173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2241,13 +2191,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2272,21 +2282,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2317,15 +2312,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2335,11 +2321,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2373,6 +2365,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2381,10 +2391,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2393,16 +2403,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2411,16 +2421,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2429,97 +2442,94 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2951,10 +2961,10 @@
   <sheetPr/>
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3266,7 +3276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" ht="28.8" spans="1:4">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -3274,7 +3284,7 @@
       <c r="C39" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3887,13 +3897,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="61.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="58.1111111111111" customWidth="1"/>
@@ -3945,6 +3955,19 @@
         <v>134</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/pythonweb相关模块.xlsx
+++ b/pythonweb相关模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,43 +744,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF0033B3"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">from </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF080808"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">datetime </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF0033B3"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">import </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF080808"/>
-        <rFont val="JetBrains Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>datetime</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -788,6 +753,29 @@
         <rFont val="JetBrains Mono"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>datetime</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">datetime.strptime(str1, </t>
     </r>
     <r>
@@ -1721,10 +1709,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -1839,7 +1827,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1853,68 +1917,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1930,53 +1949,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2077,13 +2065,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2107,7 +2137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2119,19 +2149,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,43 +2233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,73 +2245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2286,15 +2274,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2306,17 +2285,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2336,6 +2304,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2347,6 +2333,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2368,18 +2363,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2391,10 +2379,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2403,133 +2391,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2961,10 +2949,10 @@
   <sheetPr/>
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3404,7 +3392,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="9"/>
@@ -3899,7 +3887,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/pythonweb相关模块.xlsx
+++ b/pythonweb相关模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="8904" windowHeight="8987"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="139">
   <si>
     <t>模块</t>
   </si>
@@ -776,6 +776,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">datetime.strptime(str1, </t>
     </r>
     <r>
@@ -797,6 +803,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>转date类型</t>
   </si>
   <si>
     <r>
@@ -1709,9 +1718,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
@@ -1856,17 +1865,56 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1880,60 +1928,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1956,15 +1951,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2065,31 +2074,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,61 +2110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,19 +2122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,7 +2140,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2221,7 +2188,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2233,13 +2206,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2275,6 +2284,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2285,21 +2309,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2337,15 +2346,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2363,6 +2363,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2379,142 +2388,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2950,9 +2959,9 @@
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3391,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
@@ -3399,6 +3408,9 @@
       <c r="C58" s="19" t="s">
         <v>62</v>
       </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5" t="s">
@@ -3416,10 +3428,10 @@
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3438,76 +3450,76 @@
     </row>
     <row r="65" ht="230.4" spans="1:4">
       <c r="A65" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="C72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3526,23 +3538,23 @@
     </row>
     <row r="77" ht="30" spans="1:4">
       <c r="A77" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:4">
       <c r="A78" s="13"/>
       <c r="B78" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D78" s="5"/>
     </row>
@@ -3550,32 +3562,32 @@
       <c r="A79" s="13"/>
       <c r="B79" s="5"/>
       <c r="C79" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:4">
       <c r="A80" s="13"/>
       <c r="C80" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:4">
       <c r="A81" s="13"/>
       <c r="C81" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D81" s="5"/>
     </row>
     <row r="82" ht="17.4" spans="1:4">
       <c r="A82" s="13"/>
       <c r="B82" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="5"/>
@@ -3598,30 +3610,30 @@
     <row r="86" ht="15" spans="1:4">
       <c r="A86" s="13"/>
       <c r="B86" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86" s="5"/>
     </row>
     <row r="87" ht="15.6" spans="1:4">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:4">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D88" s="5"/>
     </row>
@@ -3629,20 +3641,20 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3666,19 +3678,19 @@
     <row r="94" spans="1:4">
       <c r="A94" s="5"/>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" ht="43.2" spans="1:4">
       <c r="A95" s="5"/>
       <c r="B95" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D95" s="5"/>
     </row>
@@ -3718,20 +3730,20 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3750,29 +3762,29 @@
     </row>
     <row r="108" ht="15" spans="1:4">
       <c r="A108" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="3:4">
       <c r="C109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="3:4">
       <c r="C110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3791,21 +3803,21 @@
     </row>
     <row r="112" ht="15" spans="1:4">
       <c r="A112" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="3:4">
       <c r="C113" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3824,13 +3836,13 @@
     </row>
     <row r="117" ht="15" spans="1:4">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3899,7 +3911,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -3907,53 +3919,53 @@
     </row>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" ht="17.4" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
